--- a/data/output/FV2304_FV2210/UTILMD/11107.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11107.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4610" uniqueCount="350">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4631" uniqueCount="350">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1171,6 +1171,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U217" totalsRowShown="0">
+  <autoFilter ref="A1:U217"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1460,7 +1490,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11394,5 +11427,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11107.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11107.xlsx
@@ -2215,7 +2215,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3167,7 +3167,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3715,7 +3715,7 @@
         <v>324</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4201,7 +4201,7 @@
         <v>325</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4405,7 +4405,7 @@
         <v>326</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4609,7 +4609,7 @@
         <v>327</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4813,7 +4813,7 @@
         <v>327</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5017,7 +5017,7 @@
         <v>328</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5221,7 +5221,7 @@
         <v>329</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5483,7 +5483,7 @@
         <v>327</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5689,7 +5689,7 @@
         <v>330</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6069,7 +6069,7 @@
         <v>332</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6357,7 +6357,7 @@
         <v>333</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6827,7 +6827,7 @@
         <v>337</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7071,7 +7071,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7261,7 +7261,7 @@
         <v>339</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7547,7 +7547,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7733,7 +7733,7 @@
         <v>329</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8449,7 +8449,7 @@
         <v>341</v>
       </c>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8655,7 +8655,7 @@
         <v>342</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -8993,7 +8993,7 @@
         <v>343</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9239,7 +9239,7 @@
         <v>345</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9765,7 +9765,7 @@
         <v>346</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10333,7 +10333,7 @@
         <v>347</v>
       </c>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -10471,7 +10471,7 @@
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11179,7 +11179,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11581,7 +11581,7 @@
         <v>349</v>
       </c>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -11867,7 +11867,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -12095,7 +12095,7 @@
         <v>350</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -12391,7 +12391,7 @@
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N215" s="2"/>
